--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -375,13 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名簿</t>
-    <rPh sb="0" eb="2">
-      <t>メイボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>林三郎</t>
     <rPh sb="0" eb="1">
       <t>ハヤシ</t>
@@ -414,6 +407,23 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿（リスト）</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿（配列）</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -559,9 +569,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -571,6 +578,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1278,10 +1290,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1291,10 +1303,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1303,16 +1315,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -1340,18 +1352,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="13"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1471,10 +1483,10 @@
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1482,10 +1494,10 @@
       <c r="C28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1529,7 +1541,7 @@
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="3">
@@ -1540,7 +1552,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1551,7 +1563,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>42095</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1562,7 +1574,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>42096</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1573,7 +1585,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>42097</v>
       </c>
       <c r="C7" s="3"/>
@@ -1585,7 +1597,7 @@
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="3">
@@ -1596,7 +1608,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1607,7 +1619,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>42095</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1618,7 +1630,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <v>42096</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1629,7 +1641,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <v>42097</v>
       </c>
       <c r="C14" s="3"/>
@@ -1645,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1660,7 +1672,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1677,7 +1689,7 @@
       <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -1691,25 +1703,78 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="18"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="カラムの設定" sheetId="3" r:id="rId3"/>
     <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -425,6 +426,36 @@
     <rPh sb="3" eb="5">
       <t>ハイレツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@VerticalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -559,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -578,6 +609,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1290,10 +1323,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1303,10 +1336,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1315,16 +1348,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -1352,7 +1385,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1363,7 +1396,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="20"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1659,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1780,4 +1813,146 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16">
+        <v>4</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C11" s="14">
+        <v>42095</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="14">
+        <v>42096</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="14">
+        <v>42097</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
     <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
+    <sheet name="ラベルの位置の指定" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="75">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -456,6 +457,40 @@
   </si>
   <si>
     <t>アノテーション「@VerticalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルが上</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルが上（離れている）</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルが左</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルが左（離れている）</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -590,12 +625,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -611,11 +645,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -920,7 +957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1038,9 +1077,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1186,7 +1225,7 @@
       <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1200,7 +1239,7 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1214,7 +1253,7 @@
       <c r="F15" s="3">
         <v>-12</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>SUM(E15:F15)</f>
         <v>0.45599999999999952</v>
       </c>
@@ -1312,10 +1351,10 @@
       <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>6</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1323,10 +1362,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1336,10 +1375,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1348,16 +1387,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -1385,18 +1424,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1516,10 +1555,10 @@
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1527,10 +1566,10 @@
       <c r="C28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1574,7 +1613,7 @@
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="3">
@@ -1585,7 +1624,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1596,7 +1635,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>42095</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1607,7 +1646,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>42096</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1618,7 +1657,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>42097</v>
       </c>
       <c r="C7" s="3"/>
@@ -1630,7 +1669,7 @@
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="3">
@@ -1641,7 +1680,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1652,7 +1691,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>42095</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1663,7 +1702,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>42096</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1674,7 +1713,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>42097</v>
       </c>
       <c r="C14" s="3"/>
@@ -1722,7 +1761,7 @@
       <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -1738,76 +1777,76 @@
       <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1819,9 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1839,117 +1876,289 @@
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>42095</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>42096</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>42097</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>12.456</v>
+      </c>
+      <c r="D6" s="17">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>12.456</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17">
+        <v>12.456</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="17">
+        <v>12.456</v>
+      </c>
+      <c r="E25" s="17">
+        <v>-12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
     <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
     <sheet name="ラベルの位置の指定" sheetId="7" r:id="rId7"/>
+    <sheet name="データの開始位置" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="81">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -490,6 +491,51 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの開始位置が離れている</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国語</t>
+    <rPh sb="0" eb="2">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合（タイトルが上）</t>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,7 +547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +579,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,8 +613,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -620,12 +686,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -647,12 +750,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1077,7 +1201,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D17" s="24"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
@@ -1362,10 +1486,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1375,10 +1499,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1387,16 +1511,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -1424,7 +1548,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1435,7 +1559,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="23"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1998,9 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2164,4 +2286,238 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="19">
+        <v>90</v>
+      </c>
+      <c r="F6" s="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19">
+        <v>70</v>
+      </c>
+      <c r="F7" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24">
+        <f>SUM(E6:E7)</f>
+        <v>160</v>
+      </c>
+      <c r="F8" s="24">
+        <f>SUM(F6:F7)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D13" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D14" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="19">
+        <v>90</v>
+      </c>
+      <c r="G14" s="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D15" s="32"/>
+      <c r="E15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="19">
+        <v>70</v>
+      </c>
+      <c r="G15" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D16" s="33"/>
+      <c r="E16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="24">
+        <f>SUM(F14:F15)</f>
+        <v>160</v>
+      </c>
+      <c r="G16" s="24">
+        <f>SUM(G14:G15)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="23">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E22" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E23" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="19">
+        <v>90</v>
+      </c>
+      <c r="H23" s="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E24" s="32"/>
+      <c r="F24" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="19">
+        <v>70</v>
+      </c>
+      <c r="H24" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E25" s="33"/>
+      <c r="F25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="24">
+        <f>SUM(G23:G24)</f>
+        <v>160</v>
+      </c>
+      <c r="H25" s="24">
+        <f>SUM(H23:H24)</f>
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
     <sheet name="ラベルの位置の指定" sheetId="7" r:id="rId7"/>
     <sheet name="データの開始位置" sheetId="8" r:id="rId8"/>
+    <sheet name="正規表現で一致" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -536,6 +537,128 @@
     <t>見出しが結合（タイトルが上）</t>
     <rPh sb="12" eb="13">
       <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（通常）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 測定結果
+[タイトルが正規表現]  </t>
+    <rPh sb="1" eb="3">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（見出しが正規表現）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前
+（必須）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（終端が正規表現）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【合計】 </t>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -728,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -760,6 +883,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -775,6 +899,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1486,10 +1622,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1499,10 +1635,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1511,16 +1647,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -1548,7 +1684,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1559,7 +1695,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2292,9 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2376,10 +2510,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="30"/>
+      <c r="D12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -2388,10 +2522,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -2400,7 +2534,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -2414,7 +2548,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="32"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -2426,7 +2560,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -2445,10 +2579,10 @@
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="30"/>
+      <c r="E21" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="31"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -2457,10 +2591,10 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -2469,7 +2603,7 @@
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="32" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -2483,7 +2617,7 @@
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="32"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -2495,7 +2629,7 @@
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
@@ -2520,4 +2654,246 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="25">
+        <v>30</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="25">
+        <v>40</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="25">
+        <v>50</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="25">
+        <v>30</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="25">
+        <v>40</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="25">
+        <v>50</v>
+      </c>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C20" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="25">
+        <v>30</v>
+      </c>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="25">
+        <v>40</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="25">
+        <v>50</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="F27" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C28" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C29" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="25">
+        <v>30</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24">
+        <f>SUM(D29:E29)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="25">
+        <v>40</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24">
+        <f>SUM(D30:E30)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="25">
+        <v>50</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="24">
+        <f>SUM(D31:E31)</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="100">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -659,6 +659,56 @@
     <t xml:space="preserve"> 【合計】 </t>
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム（終了条件がある）</t>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえず出席します。</t>
+    <rPh sb="5" eb="7">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善している。</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考
+（オプション）</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -851,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -884,6 +934,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -902,16 +965,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,6 +977,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1622,10 +1684,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1635,10 +1697,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1647,16 +1709,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -1684,7 +1746,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1695,7 +1757,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="30"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1852,9 +1914,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1980,6 +2044,71 @@
       <c r="D14" s="3" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="13">
+        <v>42095</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="13">
+        <v>42096</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="13">
+        <v>42097</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2510,10 +2639,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31"/>
+      <c r="D12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="36"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -2522,10 +2651,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -2534,7 +2663,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="37" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -2548,7 +2677,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="33"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -2560,7 +2689,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="34"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -2579,10 +2708,10 @@
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E21" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="31"/>
+      <c r="E21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="36"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -2591,10 +2720,10 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -2603,7 +2732,7 @@
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="37" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -2617,7 +2746,7 @@
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="33"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -2629,7 +2758,7 @@
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="34"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
@@ -2658,15 +2787,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -2678,7 +2808,7 @@
       <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="23">
@@ -2698,7 +2828,7 @@
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="25">
@@ -2707,7 +2837,7 @@
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="25">
@@ -2716,7 +2846,7 @@
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="25">
@@ -2724,11 +2854,20 @@
       </c>
       <c r="E8" s="25"/>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
     <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="27" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="23">
@@ -2748,7 +2887,7 @@
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="25">
@@ -2757,7 +2896,7 @@
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="25">
@@ -2766,7 +2905,7 @@
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="25">
@@ -2774,123 +2913,151 @@
       </c>
       <c r="E16" s="25"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C17" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C20" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C20" s="37" t="s">
+      <c r="D20" s="23">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C21" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="35" t="s">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D22" s="25">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="35" t="s">
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D23" s="25">
         <v>40</v>
       </c>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="35" t="s">
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D24" s="25">
         <v>50</v>
       </c>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C25" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C28" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="23">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2</v>
-      </c>
-      <c r="F27" s="38">
+      <c r="D28" s="23">
+        <v>1</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
+      <c r="F28" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C28" s="37" t="s">
+    <row r="29" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C29" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="24" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C29" s="35" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D30" s="25">
         <v>30</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="24">
-        <f>SUM(D29:E29)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C30" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="25">
-        <v>40</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="24">
         <f>SUM(D30:E30)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="25">
         <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C31" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="25">
-        <v>50</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="24">
         <f>SUM(D31:E31)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="25">
         <v>50</v>
       </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24">
+        <f>SUM(D32:E32)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C33" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1740" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="10410" yWindow="2640" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
     <sheet name="終了位置の指定" sheetId="2" r:id="rId2"/>
-    <sheet name="カラムの設定" sheetId="3" r:id="rId3"/>
-    <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
-    <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
-    <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
-    <sheet name="ラベルの位置の指定" sheetId="7" r:id="rId7"/>
-    <sheet name="データの開始位置" sheetId="8" r:id="rId8"/>
-    <sheet name="正規表現で一致" sheetId="9" r:id="rId9"/>
+    <sheet name="見出しの空白" sheetId="10" r:id="rId3"/>
+    <sheet name="カラムの設定" sheetId="3" r:id="rId4"/>
+    <sheet name="マップカラムの設定" sheetId="4" r:id="rId5"/>
+    <sheet name="レコードの設定" sheetId="5" r:id="rId6"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId7"/>
+    <sheet name="ラベルの位置の指定" sheetId="7" r:id="rId8"/>
+    <sheet name="データの開始位置" sheetId="8" r:id="rId9"/>
+    <sheet name="正規表現で一致" sheetId="9" r:id="rId10"/>
+    <sheet name="ネストした表" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="174">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -709,6 +711,460 @@
 （オプション）</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿（集合）</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※属性rangeの確認</t>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しに空白なし</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しに空白がある</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始位置がずれている</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-1111-1111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-2222-222</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-2222-222</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-1111-1111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-1111-1111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常の表</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能B</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能C</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（大分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能Aの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能Bの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能Cの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中分類</t>
+    <rPh sb="0" eb="3">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A1</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A2</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A3</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能B1</t>
+  </si>
+  <si>
+    <t>機能B2</t>
+  </si>
+  <si>
+    <t>機能C1</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（中分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A1の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A2の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A3の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能B1の説明</t>
+  </si>
+  <si>
+    <t>機能B2の説明</t>
+  </si>
+  <si>
+    <t>機能C1の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A11</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A12</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A21</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A31</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A32</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A33</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目B11</t>
+  </si>
+  <si>
+    <t>項目B21</t>
+  </si>
+  <si>
+    <t>項目B22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目C11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目C11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A11の値</t>
+  </si>
+  <si>
+    <t>項目A12の値</t>
+  </si>
+  <si>
+    <t>項目A21の値</t>
+  </si>
+  <si>
+    <t>項目A31の値</t>
+  </si>
+  <si>
+    <t>項目A32の値</t>
+  </si>
+  <si>
+    <t>項目A33の値</t>
+  </si>
+  <si>
+    <t>項目B11の値</t>
+  </si>
+  <si>
+    <t>項目B21の値</t>
+  </si>
+  <si>
+    <t>項目B22の値</t>
+  </si>
+  <si>
+    <t>項目C11の値</t>
+  </si>
+  <si>
+    <t>空のレコードがある表</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合している表</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目B22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目C11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1対1のネスト</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田花子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハナコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -717,10 +1173,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,8 +1217,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +1267,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -947,6 +1431,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -964,11 +1457,48 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1446,6 +1976,1048 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="25">
+        <v>30</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="25">
+        <v>40</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="25">
+        <v>50</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="25">
+        <v>30</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="25">
+        <v>40</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="25">
+        <v>50</v>
+      </c>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C17" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C21" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="25">
+        <v>30</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="25">
+        <v>40</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C24" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="25">
+        <v>50</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C25" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
+      <c r="F28" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C29" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="25">
+        <v>30</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24">
+        <f>SUM(D30:E30)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="25">
+        <v>40</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="24">
+        <f>SUM(D31:E31)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="25">
+        <v>50</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24">
+        <f>SUM(D32:E32)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C33" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="49"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C5" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C6" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="49"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C7" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="51"/>
+      <c r="M7" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="49"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C8" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="49"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="49"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="49"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C13" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="49"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C14" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C15" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q15" s="49"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C16" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="49"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C17" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" s="49"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="49"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C21" s="64"/>
+      <c r="D21" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="R21" s="49"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C22" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" s="49"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C23" s="65"/>
+      <c r="D23" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="R23" s="49"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C24" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="R24" s="49"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C25" s="65"/>
+      <c r="D25" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="R25" s="49"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="34">
+        <v>1</v>
+      </c>
+      <c r="F29" s="34">
+        <v>2</v>
+      </c>
+      <c r="G29" s="34">
+        <v>3</v>
+      </c>
+      <c r="H29" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D30" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="59"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D32" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="61">
+        <v>36617</v>
+      </c>
+      <c r="F32" s="61">
+        <v>36618</v>
+      </c>
+      <c r="G32" s="61">
+        <v>36647</v>
+      </c>
+      <c r="H32" s="61">
+        <v>36648</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C33" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="34">
+        <v>90</v>
+      </c>
+      <c r="F33" s="34">
+        <v>80</v>
+      </c>
+      <c r="G33" s="34">
+        <v>60</v>
+      </c>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C34" s="62"/>
+      <c r="D34" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="34">
+        <v>70</v>
+      </c>
+      <c r="F34" s="34">
+        <v>90</v>
+      </c>
+      <c r="G34" s="34">
+        <v>30</v>
+      </c>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C35" s="62"/>
+      <c r="D35" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="24">
+        <f>SUM(E33:E34)</f>
+        <v>160</v>
+      </c>
+      <c r="F35" s="24">
+        <f>SUM(F33:F34)</f>
+        <v>170</v>
+      </c>
+      <c r="G35" s="24">
+        <f>SUM(G33:G34)</f>
+        <v>90</v>
+      </c>
+      <c r="H35" s="24">
+        <f>SUM(H33:H34)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:L6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
@@ -1635,9 +3207,227 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="46"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="34">
+        <v>1</v>
+      </c>
+      <c r="E17" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="12"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1</v>
+      </c>
+      <c r="E24" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="12"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="12"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="12"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="12"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="12"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1684,10 +3474,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1697,10 +3487,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -1709,16 +3499,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -1746,7 +3536,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1757,7 +3547,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="35"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1765,133 +3555,144 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C14" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>12.456</v>
-      </c>
-      <c r="F16" s="3">
-        <v>-12</v>
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12.456</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>12.456</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>-12</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>45</v>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1912,7 +3713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -2116,12 +3917,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2186,43 +3987,43 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
+        <v>103</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34">
         <v>3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="34">
         <v>4</v>
       </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2231,11 +4032,64 @@
       <c r="D10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2243,7 +4097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2383,7 +4237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -2553,7 +4407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -2639,10 +4493,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="36"/>
+      <c r="D12" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="41"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -2651,10 +4505,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -2663,7 +4517,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -2677,7 +4531,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="38"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -2689,7 +4543,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="39"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -2708,10 +4562,10 @@
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E21" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="36"/>
+      <c r="E21" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -2720,10 +4574,10 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -2732,7 +4586,7 @@
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="42" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -2746,7 +4600,7 @@
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="38"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -2758,7 +4612,7 @@
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="39"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
@@ -2783,284 +4637,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="23">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="25">
-        <v>30</v>
-      </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="25">
-        <v>40</v>
-      </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="25">
-        <v>50</v>
-      </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="23">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="25">
-        <v>30</v>
-      </c>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="25">
-        <v>40</v>
-      </c>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C16" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="25">
-        <v>50</v>
-      </c>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="23">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C21" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="25">
-        <v>30</v>
-      </c>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="25">
-        <v>40</v>
-      </c>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C24" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="25">
-        <v>50</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C25" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="23">
-        <v>1</v>
-      </c>
-      <c r="E28" s="23">
-        <v>2</v>
-      </c>
-      <c r="F28" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C29" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C30" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="25">
-        <v>30</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24">
-        <f>SUM(D30:E30)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C31" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="25">
-        <v>40</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="24">
-        <f>SUM(D31:E31)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C32" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="25">
-        <v>50</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="24">
-        <f>SUM(D32:E32)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C33" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="2640" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="10410" yWindow="2640" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="データの開始位置" sheetId="8" r:id="rId9"/>
     <sheet name="正規表現で一致" sheetId="9" r:id="rId10"/>
     <sheet name="ネストした表" sheetId="11" r:id="rId11"/>
+    <sheet name="数式を指定" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="181">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1165,6 +1166,58 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハナコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績一覧</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席可能数</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1385,7 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1440,6 +1493,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1457,27 +1534,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1488,18 +1548,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2258,9 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2279,577 +2335,577 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="49" t="s">
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="49"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="49" t="s">
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="49"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="49" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="49" t="s">
+      <c r="L6" s="59"/>
+      <c r="M6" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="49"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="49" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="49" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="49" t="s">
+      <c r="L7" s="59"/>
+      <c r="M7" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="N7" s="49"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="N8" s="49"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="49"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="51" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="49" t="s">
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="Q12" s="49"/>
+      <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="51" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="49" t="s">
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="Q13" s="49"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49" t="s">
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="49" t="s">
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="Q14" s="49"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49" t="s">
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="49" t="s">
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="Q15" s="49"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49" t="s">
+      <c r="K16" s="39"/>
+      <c r="L16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="49" t="s">
+      <c r="M16" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49" t="s">
+      <c r="N16" s="39"/>
+      <c r="O16" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="P16" s="49" t="s">
+      <c r="P16" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="Q16" s="49"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49" t="s">
+      <c r="K17" s="39"/>
+      <c r="L17" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49" t="s">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="P17" s="49" t="s">
+      <c r="P17" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="51" t="s">
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="49" t="s">
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="R20" s="49"/>
+      <c r="R20" s="39"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C21" s="64"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="51" t="s">
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="49" t="s">
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="R21" s="49"/>
+      <c r="R21" s="39"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="51" t="s">
+      <c r="D22" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49" t="s">
+      <c r="F22" s="59"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49" t="s">
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="51" t="s">
+      <c r="N22" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="49" t="s">
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="R22" s="49"/>
+      <c r="R22" s="39"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="65"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49" t="s">
+      <c r="F23" s="59"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49" t="s">
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="51" t="s">
+      <c r="N23" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="49" t="s">
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="R23" s="49"/>
+      <c r="R23" s="39"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49" t="s">
+      <c r="G24" s="39"/>
+      <c r="H24" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49" t="s">
+      <c r="L24" s="39"/>
+      <c r="M24" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N24" s="49" t="s">
+      <c r="N24" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49" t="s">
+      <c r="O24" s="39"/>
+      <c r="P24" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="Q24" s="49" t="s">
+      <c r="Q24" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="R24" s="49"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="65"/>
-      <c r="D25" s="54" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49" t="s">
+      <c r="G25" s="39"/>
+      <c r="H25" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="49" t="s">
+      <c r="K25" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49" t="s">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="N25" s="49" t="s">
+      <c r="N25" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49" t="s">
+      <c r="O25" s="39"/>
+      <c r="P25" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="Q25" s="49" t="s">
+      <c r="Q25" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="R25" s="49"/>
+      <c r="R25" s="39"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
@@ -2875,14 +2931,14 @@
       <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58" t="s">
+      <c r="F30" s="62"/>
+      <c r="G30" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="59"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D31" s="12" t="s">
@@ -2902,27 +2958,27 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="46">
         <v>36617</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="46">
         <v>36618</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32" s="46">
         <v>36647</v>
       </c>
-      <c r="H32" s="61">
+      <c r="H32" s="46">
         <v>36648</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="47" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="34">
@@ -2937,8 +2993,8 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="62"/>
-      <c r="D34" s="63" t="s">
+      <c r="C34" s="65"/>
+      <c r="D34" s="47" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="34">
@@ -2953,8 +3009,8 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
+      <c r="C35" s="65"/>
+      <c r="D35" s="47" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="24">
@@ -2976,11 +3032,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E20:K20"/>
@@ -2992,26 +3063,206 @@
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C5" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C6" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="36">
+        <v>90</v>
+      </c>
+      <c r="F6" s="36">
+        <v>80</v>
+      </c>
+      <c r="G6" s="36">
+        <f>AVERAGE(E6:F6)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7" s="67"/>
+      <c r="D7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="36">
+        <v>70</v>
+      </c>
+      <c r="F7" s="36">
+        <v>90</v>
+      </c>
+      <c r="G7" s="36">
+        <f>AVERAGE(E7:F7)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="67"/>
+      <c r="D8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="24">
+        <f>SUM(E6:E7)</f>
+        <v>160</v>
+      </c>
+      <c r="F8" s="24">
+        <f>SUM(F6:F7)</f>
+        <v>170</v>
+      </c>
+      <c r="G8" s="24">
+        <f>SUM(G6:G7)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="68">
+        <v>42095</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="68">
+        <v>42096</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="68">
+        <v>42097</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="36">
+        <f>COUNTIF(D13:D15,"出席")</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <f>COUNTIF(E13:E15,"出席")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3282,7 +3533,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -3293,7 +3544,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="46"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
@@ -3474,10 +3725,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -3487,10 +3738,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -3499,16 +3750,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -3536,7 +3787,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -3547,7 +3798,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="40"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -4493,10 +4744,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="41"/>
+      <c r="D12" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="55"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -4505,10 +4756,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -4517,7 +4768,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="56" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -4531,7 +4782,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="43"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -4543,7 +4794,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="44"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -4562,10 +4813,10 @@
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E21" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="41"/>
+      <c r="E21" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="55"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -4574,10 +4825,10 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -4586,7 +4837,7 @@
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="56" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -4600,7 +4851,7 @@
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="43"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -4612,7 +4863,7 @@
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="44"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="2640" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="1050" yWindow="1050" windowWidth="17565" windowHeight="9345" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="正規表現で一致" sheetId="9" r:id="rId10"/>
     <sheet name="ネストした表" sheetId="11" r:id="rId11"/>
     <sheet name="数式を指定" sheetId="12" r:id="rId12"/>
+    <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="188">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1218,6 +1219,61 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性「headerBottom」の指定</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsRecordFinder」の指定</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本花子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハナコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林明</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿部昌子</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マサコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1286,7 +1342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,7 +1500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1515,6 +1577,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1537,6 +1601,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1548,16 +1618,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1868,7 +1934,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E11"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2038,7 +2104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2316,7 +2382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2341,19 +2409,19 @@
       <c r="C4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
       <c r="M4" s="39" t="s">
         <v>123</v>
       </c>
@@ -2363,19 +2431,19 @@
       <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="39" t="s">
         <v>127</v>
       </c>
@@ -2385,25 +2453,25 @@
       <c r="C6" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="61"/>
       <c r="M6" s="39" t="s">
         <v>134</v>
       </c>
@@ -2413,25 +2481,25 @@
       <c r="C7" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="59"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="39" t="s">
         <v>141</v>
       </c>
@@ -2516,22 +2584,22 @@
       <c r="C12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
       <c r="K12" s="39"/>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
       <c r="P12" s="39" t="s">
         <v>123</v>
       </c>
@@ -2541,22 +2609,22 @@
       <c r="C13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="39" t="s">
         <v>127</v>
       </c>
@@ -2566,28 +2634,28 @@
       <c r="C14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="59"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="59" t="s">
+      <c r="M14" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
       <c r="P14" s="39" t="s">
         <v>134</v>
       </c>
@@ -2597,28 +2665,28 @@
       <c r="C15" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="39" t="s">
         <v>141</v>
       </c>
@@ -2706,127 +2774,127 @@
       <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="63" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="59" t="s">
+      <c r="M20" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
       <c r="Q20" s="39" t="s">
         <v>123</v>
       </c>
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C21" s="66"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="59" t="s">
+      <c r="M21" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
       <c r="Q21" s="39" t="s">
         <v>127</v>
       </c>
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="64" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="59"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="59" t="s">
+      <c r="N22" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
       <c r="Q22" s="39" t="s">
         <v>134</v>
       </c>
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="60"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="59" t="s">
+      <c r="N23" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
       <c r="Q23" s="39" t="s">
         <v>141</v>
       </c>
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="64" t="s">
         <v>166</v>
       </c>
       <c r="D24" s="43" t="s">
@@ -2868,7 +2936,7 @@
       <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="60"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="43" t="s">
         <v>5</v>
       </c>
@@ -2931,14 +2999,14 @@
       <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63" t="s">
+      <c r="F30" s="66"/>
+      <c r="G30" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="64"/>
+      <c r="H30" s="68"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D31" s="12" t="s">
@@ -2975,7 +3043,7 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="62" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="47" t="s">
@@ -2993,7 +3061,7 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="65"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="47" t="s">
         <v>76</v>
       </c>
@@ -3009,7 +3077,7 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C35" s="65"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="47" t="s">
         <v>13</v>
       </c>
@@ -3032,26 +3100,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="M15:O15"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E20:K20"/>
@@ -3068,6 +3116,26 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,9 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3099,10 +3165,10 @@
       <c r="B4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="23">
         <v>1</v>
       </c>
@@ -3114,10 +3180,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="36" t="s">
         <v>32</v>
       </c>
@@ -3129,7 +3195,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="69" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -3147,7 +3213,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="67"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
@@ -3163,7 +3229,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="67"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3272,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="68">
+      <c r="C13" s="49">
         <v>42095</v>
       </c>
       <c r="D13" s="36" t="s">
@@ -3217,7 +3283,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="68">
+      <c r="C14" s="49">
         <v>42096</v>
       </c>
       <c r="D14" s="36" t="s">
@@ -3228,7 +3294,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="68">
+      <c r="C15" s="49">
         <v>42097</v>
       </c>
       <c r="D15" s="36"/>
@@ -3237,7 +3303,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="49" t="s">
         <v>180</v>
       </c>
       <c r="D16" s="36">
@@ -3263,6 +3329,170 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C6" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C7" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="48">
+        <v>90</v>
+      </c>
+      <c r="G7" s="48">
+        <v>80</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="48">
+        <v>70</v>
+      </c>
+      <c r="J7" s="48">
+        <v>75</v>
+      </c>
+      <c r="K7" s="48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C8" s="69"/>
+      <c r="D8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="48">
+        <v>70</v>
+      </c>
+      <c r="G8" s="48">
+        <v>90</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="48">
+        <v>80</v>
+      </c>
+      <c r="J8" s="48">
+        <v>85</v>
+      </c>
+      <c r="K8" s="48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C9" s="69"/>
+      <c r="D9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="24">
+        <f>SUM(F7:F8)</f>
+        <v>160</v>
+      </c>
+      <c r="G9" s="24">
+        <f>SUM(G7:G8)</f>
+        <v>170</v>
+      </c>
+      <c r="H9" s="70"/>
+      <c r="I9" s="24">
+        <f>SUM(I7:I8)</f>
+        <v>150</v>
+      </c>
+      <c r="J9" s="24">
+        <f>SUM(J7:J8)</f>
+        <v>160</v>
+      </c>
+      <c r="K9" s="24">
+        <f>SUM(K7:K8)</f>
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3460,7 +3690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3533,7 +3763,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -3544,7 +3774,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="49"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
@@ -3676,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3725,10 +3955,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -3738,10 +3968,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -3750,16 +3980,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -3787,7 +4017,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="56" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -3798,7 +4028,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="54"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -3969,7 +4199,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4492,7 +4722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4662,7 +4894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4675,6 +4909,11 @@
         <v>70</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>75</v>
@@ -4744,10 +4983,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="55"/>
+      <c r="D12" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="57"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -4756,10 +4995,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -4768,7 +5007,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="58" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -4782,7 +5021,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="57"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -4794,7 +5033,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="58"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -4813,10 +5052,10 @@
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E21" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="55"/>
+      <c r="E21" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="57"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -4825,10 +5064,10 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -4837,7 +5076,7 @@
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="58" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -4851,7 +5090,7 @@
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="57"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -4863,7 +5102,7 @@
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="58"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1050" windowWidth="17565" windowHeight="9345" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="9615" yWindow="2790" windowWidth="17565" windowHeight="9345" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="ネストした表" sheetId="11" r:id="rId11"/>
     <sheet name="数式を指定" sheetId="12" r:id="rId12"/>
     <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
+    <sheet name="配列カラムの設定" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="207">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1274,6 +1275,118 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>マサコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsArrayColumns」の指定</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（文字列）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">090 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1111 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1234 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2222 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（結合がある）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃木県</t>
+    <rPh sb="0" eb="3">
+      <t>トチギケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test01@example.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test02@example.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-1111-2222</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-1234-5678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（型変換）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カタヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補日</t>
+    <rPh sb="0" eb="3">
+      <t>コウホビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1398,7 +1511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1495,12 +1608,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1579,6 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1598,14 +1757,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1622,6 +1781,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2409,19 +2604,19 @@
       <c r="C4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="39" t="s">
         <v>123</v>
       </c>
@@ -2431,19 +2626,19 @@
       <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
       <c r="M5" s="39" t="s">
         <v>127</v>
       </c>
@@ -2453,25 +2648,25 @@
       <c r="C6" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="61"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="39" t="s">
         <v>134</v>
       </c>
@@ -2481,25 +2676,25 @@
       <c r="C7" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="39" t="s">
         <v>141</v>
       </c>
@@ -2584,22 +2779,22 @@
       <c r="C12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
       <c r="K12" s="39"/>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
       <c r="P12" s="39" t="s">
         <v>123</v>
       </c>
@@ -2609,22 +2804,22 @@
       <c r="C13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
       <c r="P13" s="39" t="s">
         <v>127</v>
       </c>
@@ -2634,28 +2829,28 @@
       <c r="C14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="61"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
       <c r="P14" s="39" t="s">
         <v>134</v>
       </c>
@@ -2665,28 +2860,28 @@
       <c r="C15" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="M15" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="39" t="s">
         <v>141</v>
       </c>
@@ -2780,22 +2975,22 @@
       <c r="D20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="61" t="s">
+      <c r="M20" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
       <c r="Q20" s="39" t="s">
         <v>123</v>
       </c>
@@ -2806,95 +3001,95 @@
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="61" t="s">
+      <c r="M21" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
       <c r="Q21" s="39" t="s">
         <v>127</v>
       </c>
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="65" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="61" t="s">
+      <c r="N22" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
       <c r="Q22" s="39" t="s">
         <v>134</v>
       </c>
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="64"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="61" t="s">
+      <c r="N23" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
       <c r="Q23" s="39" t="s">
         <v>141</v>
       </c>
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="65" t="s">
         <v>166</v>
       </c>
       <c r="D24" s="43" t="s">
@@ -2936,7 +3131,7 @@
       <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="64"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="43" t="s">
         <v>5</v>
       </c>
@@ -2999,14 +3194,14 @@
       <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="67"/>
+      <c r="G30" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="68"/>
+      <c r="H30" s="69"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D31" s="12" t="s">
@@ -3100,6 +3295,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E20:K20"/>
@@ -3116,26 +3331,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3165,10 +3360,10 @@
       <c r="B4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="23">
         <v>1</v>
       </c>
@@ -3180,10 +3375,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="36" t="s">
         <v>32</v>
       </c>
@@ -3195,7 +3390,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -3213,7 +3408,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="69"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
@@ -3229,7 +3424,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="69"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
@@ -3339,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3361,11 +3556,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C5" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="70" t="s">
+      <c r="C5" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="71" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="23">
@@ -3374,7 +3569,7 @@
       <c r="G5" s="23">
         <v>2</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="71" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="23">
@@ -3388,18 +3583,18 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="70"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="48" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="70"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="48" t="s">
         <v>185</v>
       </c>
@@ -3411,20 +3606,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="48">
         <v>90</v>
       </c>
       <c r="G7" s="48">
         <v>80</v>
       </c>
-      <c r="H7" s="70"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="48">
         <v>70</v>
       </c>
@@ -3436,18 +3631,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C8" s="69"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="48">
         <v>70</v>
       </c>
       <c r="G8" s="48">
         <v>90</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="48">
         <v>80</v>
       </c>
@@ -3459,11 +3654,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="24">
         <f>SUM(F7:F8)</f>
         <v>160</v>
@@ -3472,7 +3667,7 @@
         <f>SUM(G7:G8)</f>
         <v>170</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="24">
         <f>SUM(I7:I8)</f>
         <v>150</v>
@@ -3493,6 +3688,226 @@
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1</v>
+      </c>
+      <c r="D6" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="86"/>
+      <c r="C9" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="87"/>
+      <c r="C10" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="50">
+        <v>1</v>
+      </c>
+      <c r="D14" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="75"/>
+      <c r="C17" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="75"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="75"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="75"/>
+      <c r="C20" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="75"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="50">
+        <v>1</v>
+      </c>
+      <c r="D25" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="79">
+        <v>42856</v>
+      </c>
+      <c r="D27" s="79">
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="83"/>
+      <c r="C28" s="80">
+        <v>42857</v>
+      </c>
+      <c r="D28" s="80">
+        <v>42862</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="84"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81">
+        <v>42863</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3763,7 +4178,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="51" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -3774,7 +4189,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
@@ -3955,10 +4370,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -3968,10 +4383,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -3980,16 +4395,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -4017,7 +4432,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -4028,7 +4443,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="56"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -4983,10 +5398,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="57"/>
+      <c r="D12" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="58"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -4995,10 +5410,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -5007,7 +5422,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="59" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -5021,7 +5436,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -5033,7 +5448,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="60"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5052,10 +5467,10 @@
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E21" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="57"/>
+      <c r="E21" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="58"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -5064,10 +5479,10 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="57"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -5076,7 +5491,7 @@
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="59" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -5090,7 +5505,7 @@
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="59"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -5102,7 +5517,7 @@
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="60"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="2790" windowWidth="17565" windowHeight="9345" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="9615" yWindow="2790" windowWidth="17565" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
     <sheet name="配列カラムの設定" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1738,6 +1738,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1757,14 +1766,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1783,24 +1792,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1819,6 +1810,15 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1835,12 +1835,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1882,7 +1885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1915,9 +1918,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1950,6 +1970,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2128,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2604,19 +2641,19 @@
       <c r="C4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="39" t="s">
         <v>123</v>
       </c>
@@ -2626,19 +2663,19 @@
       <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
       <c r="M5" s="39" t="s">
         <v>127</v>
       </c>
@@ -2648,25 +2685,25 @@
       <c r="C6" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="64"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="39" t="s">
         <v>134</v>
       </c>
@@ -2676,25 +2713,25 @@
       <c r="C7" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="64"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="39" t="s">
         <v>141</v>
       </c>
@@ -2779,22 +2816,22 @@
       <c r="C12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="39"/>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
       <c r="P12" s="39" t="s">
         <v>123</v>
       </c>
@@ -2804,22 +2841,22 @@
       <c r="C13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="64" t="s">
+      <c r="L13" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
       <c r="P13" s="39" t="s">
         <v>127</v>
       </c>
@@ -2829,28 +2866,28 @@
       <c r="C14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="64"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="64" t="s">
+      <c r="M14" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
       <c r="P14" s="39" t="s">
         <v>134</v>
       </c>
@@ -2860,28 +2897,28 @@
       <c r="C15" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="64"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="64" t="s">
+      <c r="M15" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
       <c r="P15" s="39" t="s">
         <v>141</v>
       </c>
@@ -2969,127 +3006,127 @@
       <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="71" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="64" t="s">
+      <c r="M20" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
       <c r="Q20" s="39" t="s">
         <v>123</v>
       </c>
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C21" s="63"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="64" t="s">
+      <c r="M21" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
       <c r="Q21" s="39" t="s">
         <v>127</v>
       </c>
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="72" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="64"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
       <c r="Q22" s="39" t="s">
         <v>134</v>
       </c>
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="65"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="64"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="64" t="s">
+      <c r="N23" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
       <c r="Q23" s="39" t="s">
         <v>141</v>
       </c>
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="72" t="s">
         <v>166</v>
       </c>
       <c r="D24" s="43" t="s">
@@ -3131,7 +3168,7 @@
       <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="65"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="43" t="s">
         <v>5</v>
       </c>
@@ -3194,14 +3231,14 @@
       <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68" t="s">
+      <c r="F30" s="74"/>
+      <c r="G30" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="69"/>
+      <c r="H30" s="76"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D31" s="12" t="s">
@@ -3238,7 +3275,7 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="47" t="s">
@@ -3256,7 +3293,7 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="62"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="47" t="s">
         <v>76</v>
       </c>
@@ -3272,7 +3309,7 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C35" s="62"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="47" t="s">
         <v>13</v>
       </c>
@@ -3295,26 +3332,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="M15:O15"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E20:K20"/>
@@ -3331,6 +3348,26 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3360,10 +3397,10 @@
       <c r="B4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="23">
         <v>1</v>
       </c>
@@ -3375,10 +3412,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="36" t="s">
         <v>32</v>
       </c>
@@ -3390,7 +3427,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="77" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -3408,7 +3445,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="70"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
@@ -3424,7 +3461,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="70"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
@@ -3556,11 +3593,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C5" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="71" t="s">
+      <c r="C5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="78" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="23">
@@ -3569,7 +3606,7 @@
       <c r="G5" s="23">
         <v>2</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="78" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="23">
@@ -3583,18 +3620,18 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="71"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="48" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="48" t="s">
         <v>185</v>
       </c>
@@ -3606,20 +3643,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="77" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="48">
         <v>90</v>
       </c>
       <c r="G7" s="48">
         <v>80</v>
       </c>
-      <c r="H7" s="71"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="48">
         <v>70</v>
       </c>
@@ -3631,18 +3668,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C8" s="70"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="48">
         <v>70</v>
       </c>
       <c r="G8" s="48">
         <v>90</v>
       </c>
-      <c r="H8" s="71"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="48">
         <v>80</v>
       </c>
@@ -3654,11 +3691,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C9" s="70"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="24">
         <f>SUM(F7:F8)</f>
         <v>160</v>
@@ -3667,7 +3704,7 @@
         <f>SUM(G7:G8)</f>
         <v>170</v>
       </c>
-      <c r="H9" s="71"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="24">
         <f>SUM(I7:I8)</f>
         <v>150</v>
@@ -3691,6 +3728,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3698,7 +3736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3746,31 +3784,31 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="51" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="86"/>
-      <c r="C9" s="74" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="53" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="87"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="52" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3802,48 +3840,48 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="54" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="75"/>
-      <c r="C17" s="77" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="86" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="75"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="75"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="75"/>
-      <c r="C20" s="77" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="86" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="75"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
@@ -3873,29 +3911,29 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="55">
         <v>42856</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="55">
         <v>42861</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="83"/>
-      <c r="C28" s="80">
+      <c r="B28" s="80"/>
+      <c r="C28" s="56">
         <v>42857</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="56">
         <v>42862</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="84"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81">
+      <c r="B29" s="81"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57">
         <v>42863</v>
       </c>
     </row>
@@ -4178,7 +4216,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="58" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -4189,7 +4227,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="52"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
@@ -4370,10 +4408,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -4383,10 +4421,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -4395,16 +4433,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -4432,7 +4470,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -4443,7 +4481,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="57"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -5398,10 +5436,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="58"/>
+      <c r="D12" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="65"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -5410,10 +5448,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -5422,7 +5460,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="66" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -5436,7 +5474,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="60"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -5448,7 +5486,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="61"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5467,10 +5505,10 @@
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E21" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="58"/>
+      <c r="E21" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="65"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -5479,10 +5517,10 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -5491,7 +5529,7 @@
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="66" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -5505,7 +5543,7 @@
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="60"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -5517,7 +5555,7 @@
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="61"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="208">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1387,6 +1387,13 @@
     <t>候補日</t>
     <rPh sb="0" eb="3">
       <t>コウホビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム（optionalの確認）</t>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1658,7 +1665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1747,6 +1754,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1766,14 +1774,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2641,19 +2649,19 @@
       <c r="C4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
       <c r="M4" s="39" t="s">
         <v>123</v>
       </c>
@@ -2663,19 +2671,19 @@
       <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="39" t="s">
         <v>127</v>
       </c>
@@ -2685,25 +2693,25 @@
       <c r="C6" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="69"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="72"/>
       <c r="M6" s="39" t="s">
         <v>134</v>
       </c>
@@ -2713,25 +2721,25 @@
       <c r="C7" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="69"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="69" t="s">
+      <c r="K7" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="69"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="39" t="s">
         <v>141</v>
       </c>
@@ -2816,22 +2824,22 @@
       <c r="C12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="39"/>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
       <c r="P12" s="39" t="s">
         <v>123</v>
       </c>
@@ -2841,22 +2849,22 @@
       <c r="C13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
       <c r="P13" s="39" t="s">
         <v>127</v>
       </c>
@@ -2866,28 +2874,28 @@
       <c r="C14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="69"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="39" t="s">
         <v>134</v>
       </c>
@@ -2897,28 +2905,28 @@
       <c r="C15" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="69" t="s">
+      <c r="M15" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
       <c r="P15" s="39" t="s">
         <v>141</v>
       </c>
@@ -3012,22 +3020,22 @@
       <c r="D20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="69" t="s">
+      <c r="M20" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
       <c r="Q20" s="39" t="s">
         <v>123</v>
       </c>
@@ -3038,95 +3046,95 @@
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="69" t="s">
+      <c r="M21" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
       <c r="Q21" s="39" t="s">
         <v>127</v>
       </c>
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="73" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="69" t="s">
+      <c r="N22" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
       <c r="Q22" s="39" t="s">
         <v>134</v>
       </c>
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="69"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="69" t="s">
+      <c r="N23" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
       <c r="Q23" s="39" t="s">
         <v>141</v>
       </c>
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="73" t="s">
         <v>166</v>
       </c>
       <c r="D24" s="43" t="s">
@@ -3168,7 +3176,7 @@
       <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="72"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="43" t="s">
         <v>5</v>
       </c>
@@ -3231,14 +3239,14 @@
       <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75" t="s">
+      <c r="F30" s="75"/>
+      <c r="G30" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="76"/>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D31" s="12" t="s">
@@ -3332,6 +3340,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E20:K20"/>
@@ -3348,26 +3376,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3397,10 +3405,10 @@
       <c r="B4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="23">
         <v>1</v>
       </c>
@@ -3412,10 +3420,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="36" t="s">
         <v>32</v>
       </c>
@@ -3427,7 +3435,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -3445,7 +3453,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="77"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
@@ -3461,7 +3469,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="77"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
@@ -3593,11 +3601,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C5" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="79" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="23">
@@ -3606,7 +3614,7 @@
       <c r="G5" s="23">
         <v>2</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="79" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="23">
@@ -3620,18 +3628,18 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="78"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="48" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="78"/>
+      <c r="H6" s="79"/>
       <c r="I6" s="48" t="s">
         <v>185</v>
       </c>
@@ -3643,20 +3651,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="48">
         <v>90</v>
       </c>
       <c r="G7" s="48">
         <v>80</v>
       </c>
-      <c r="H7" s="78"/>
+      <c r="H7" s="79"/>
       <c r="I7" s="48">
         <v>70</v>
       </c>
@@ -3668,18 +3676,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C8" s="77"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="48">
         <v>70</v>
       </c>
       <c r="G8" s="48">
         <v>90</v>
       </c>
-      <c r="H8" s="78"/>
+      <c r="H8" s="79"/>
       <c r="I8" s="48">
         <v>80</v>
       </c>
@@ -3691,11 +3699,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C9" s="77"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="24">
         <f>SUM(F7:F8)</f>
         <v>160</v>
@@ -3704,7 +3712,7 @@
         <f>SUM(G7:G8)</f>
         <v>170</v>
       </c>
-      <c r="H9" s="78"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="24">
         <f>SUM(I7:I8)</f>
         <v>150</v>
@@ -3784,7 +3792,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="51" t="s">
@@ -3795,7 +3803,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="53" t="s">
         <v>193</v>
       </c>
@@ -3804,7 +3812,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="84"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="52" t="s">
         <v>195</v>
       </c>
@@ -3840,7 +3848,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="86" t="s">
         <v>198</v>
       </c>
       <c r="C16" s="54" t="s">
@@ -3851,37 +3859,37 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="87" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="87" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="85"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
@@ -3911,7 +3919,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="80" t="s">
         <v>206</v>
       </c>
       <c r="C27" s="55">
@@ -3922,7 +3930,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="80"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="56">
         <v>42857</v>
       </c>
@@ -3931,7 +3939,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="81"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57">
         <v>42863</v>
@@ -4216,7 +4224,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="59" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -4227,7 +4235,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="59"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
@@ -4408,10 +4416,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -4421,10 +4429,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -4433,16 +4441,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="61"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -4470,7 +4478,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -4481,7 +4489,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" s="64"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -4649,10 +4657,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4844,6 +4852,71 @@
         <v>96</v>
       </c>
       <c r="D23" s="26"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="58">
+        <v>1</v>
+      </c>
+      <c r="D26" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="13">
+        <v>42095</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="13">
+        <v>42096</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="13">
+        <v>42097</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5436,10 +5509,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="65"/>
+      <c r="D12" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="66"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -5448,10 +5521,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -5460,7 +5533,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -5474,7 +5547,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="67"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -5486,7 +5559,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="68"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5505,10 +5578,10 @@
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E21" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="65"/>
+      <c r="E21" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="66"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -5517,10 +5590,10 @@
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="65"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -5529,7 +5602,7 @@
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="67" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -5543,7 +5616,7 @@
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -5555,7 +5628,7 @@
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="68"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B00FF0E-6841-41BF-A07C-F5B3637C9EA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="2790" windowWidth="17565" windowHeight="9345"/>
+    <workbookView xWindow="31365" yWindow="3105" windowWidth="21615" windowHeight="13860" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -21,13 +22,158 @@
     <sheet name="数式を指定" sheetId="12" r:id="rId12"/>
     <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
     <sheet name="配列カラムの設定" sheetId="15" r:id="rId14"/>
+    <sheet name="コメント情報" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId16"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
+    <definedName name="操作">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{168554BA-0607-4432-9E21-D14D6DAFD58E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{0B757DED-81E5-4AE9-9219-2F2B812D986E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{244FF8E8-8D0C-4F9A-83A0-606CD0A42DF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{BD1AFC2F-B127-4443-9CAB-41EA4B8020EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{1462EF50-CD40-4570-B1E4-733407C85EE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{81F9B4CD-165E-4996-8496-F2C3DA7EEA2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{F7E99C3E-2793-454A-8AF1-DBEE96936625}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{236D582D-746A-4208-8220-1132962F8542}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="212">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1397,16 +1543,44 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント情報の取得</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常のカラム</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,6 +1634,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1518,7 +1700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1660,12 +1842,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1774,14 +2002,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1827,6 +2055,60 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1848,6 +2130,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="開始位置の指定"/>
+      <sheetName val="終了位置の指定"/>
+      <sheetName val="見出しの空白"/>
+      <sheetName val="カラムの設定"/>
+      <sheetName val="マップカラムの設定"/>
+      <sheetName val="レコードの設定"/>
+      <sheetName val="余分なレコードの制御"/>
+      <sheetName val="オプション設定（入力規則）"/>
+      <sheetName val="オプション指定（コメント）"/>
+      <sheetName val="メソッドにアノテーションを設定"/>
+      <sheetName val="データの開始位置"/>
+      <sheetName val="正規表現で一致"/>
+      <sheetName val="ネストした表"/>
+      <sheetName val="数式を指定"/>
+      <sheetName val="余分なレコードの制御と終端の判定"/>
+      <sheetName val="結合セルの補正"/>
+      <sheetName val="独自の開始位置"/>
+      <sheetName val="配列カラムの設定"/>
+      <sheetName val="コメント情報"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>参照</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>作成</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>削除</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>更新</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2170,21 +2522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2209,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2220,7 +2572,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -2234,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2245,7 +2597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +2608,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -2270,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2281,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2292,12 +2644,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="D17" s="20"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2312,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2341,23 +2693,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
@@ -2371,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="C5" s="12" t="s">
         <v>83</v>
       </c>
@@ -2380,7 +2732,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="C6" s="27" t="s">
         <v>84</v>
       </c>
@@ -2389,7 +2741,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="C7" s="27" t="s">
         <v>85</v>
       </c>
@@ -2398,7 +2750,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="C8" s="27" t="s">
         <v>86</v>
       </c>
@@ -2407,7 +2759,7 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="C9" s="32" t="s">
         <v>97</v>
       </c>
@@ -2416,7 +2768,7 @@
       </c>
       <c r="E9" s="26"/>
     </row>
-    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="40.5">
       <c r="B12" s="28" t="s">
         <v>87</v>
       </c>
@@ -2430,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="C13" s="12" t="s">
         <v>83</v>
       </c>
@@ -2439,7 +2791,7 @@
       </c>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="C14" s="27" t="s">
         <v>84</v>
       </c>
@@ -2448,7 +2800,7 @@
       </c>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="C15" s="27" t="s">
         <v>85</v>
       </c>
@@ -2457,7 +2809,7 @@
       </c>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="C16" s="27" t="s">
         <v>86</v>
       </c>
@@ -2466,7 +2818,7 @@
       </c>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="C17" s="32" t="s">
         <v>97</v>
       </c>
@@ -2475,7 +2827,7 @@
       </c>
       <c r="E17" s="26"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2489,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" ht="27">
       <c r="C21" s="29" t="s">
         <v>90</v>
       </c>
@@ -2498,7 +2850,7 @@
       </c>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6">
       <c r="C22" s="27" t="s">
         <v>84</v>
       </c>
@@ -2507,7 +2859,7 @@
       </c>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="C23" s="27" t="s">
         <v>85</v>
       </c>
@@ -2516,7 +2868,7 @@
       </c>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="C24" s="27" t="s">
         <v>86</v>
       </c>
@@ -2525,7 +2877,7 @@
       </c>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" ht="27">
       <c r="C25" s="33" t="s">
         <v>99</v>
       </c>
@@ -2534,7 +2886,7 @@
       </c>
       <c r="E25" s="26"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
@@ -2551,7 +2903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" ht="27">
       <c r="C29" s="29" t="s">
         <v>90</v>
       </c>
@@ -2563,7 +2915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="C30" s="27" t="s">
         <v>84</v>
       </c>
@@ -2576,7 +2928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="C31" s="27" t="s">
         <v>85</v>
       </c>
@@ -2589,7 +2941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="C32" s="27" t="s">
         <v>86</v>
       </c>
@@ -2602,7 +2954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:6" ht="27">
       <c r="C33" s="33" t="s">
         <v>99</v>
       </c>
@@ -2619,14 +2971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
@@ -2637,115 +2989,115 @@
     <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="B4" s="37" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="39" t="s">
         <v>123</v>
       </c>
       <c r="N4" s="39"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="39" t="s">
         <v>127</v>
       </c>
       <c r="N5" s="39"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="C6" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="72"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="72"/>
+      <c r="L6" s="70"/>
       <c r="M6" s="39" t="s">
         <v>134</v>
       </c>
       <c r="N6" s="39"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="C7" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="72"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="39" t="s">
         <v>141</v>
       </c>
       <c r="N7" s="39"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="C8" s="40" t="s">
         <v>142</v>
       </c>
@@ -2781,7 +3133,7 @@
       </c>
       <c r="N8" s="39"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="C9" s="40" t="s">
         <v>5</v>
       </c>
@@ -2817,122 +3169,122 @@
       </c>
       <c r="N9" s="39"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="B12" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="39"/>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
       <c r="P12" s="39" t="s">
         <v>123</v>
       </c>
       <c r="Q12" s="39"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="C13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
       <c r="P13" s="39" t="s">
         <v>127</v>
       </c>
       <c r="Q13" s="39"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="C14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="72" t="s">
+      <c r="M14" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
       <c r="P14" s="39" t="s">
         <v>134</v>
       </c>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="C15" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="72"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="72" t="s">
+      <c r="M15" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
       <c r="P15" s="39" t="s">
         <v>141</v>
       </c>
       <c r="Q15" s="39"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="C16" s="42" t="s">
         <v>142</v>
       </c>
@@ -2971,7 +3323,7 @@
       </c>
       <c r="Q16" s="39"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:18">
       <c r="C17" s="42" t="s">
         <v>5</v>
       </c>
@@ -3010,130 +3362,130 @@
       </c>
       <c r="Q17" s="39"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18">
       <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="72" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
       <c r="Q20" s="39" t="s">
         <v>123</v>
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C21" s="71"/>
+    <row r="21" spans="2:18">
+      <c r="C21" s="72"/>
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="72" t="s">
+      <c r="M21" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
       <c r="Q21" s="39" t="s">
         <v>127</v>
       </c>
       <c r="R21" s="39"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18">
       <c r="C22" s="73" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
       <c r="Q22" s="39" t="s">
         <v>134</v>
       </c>
       <c r="R22" s="39"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18">
       <c r="C23" s="73"/>
       <c r="D23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="72"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="72" t="s">
+      <c r="N23" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
       <c r="Q23" s="39" t="s">
         <v>141</v>
       </c>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18">
       <c r="C24" s="73" t="s">
         <v>166</v>
       </c>
@@ -3175,7 +3527,7 @@
       </c>
       <c r="R24" s="39"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18">
       <c r="C25" s="73"/>
       <c r="D25" s="43" t="s">
         <v>5</v>
@@ -3215,7 +3567,7 @@
       </c>
       <c r="R25" s="39"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18">
       <c r="C29" t="s">
         <v>169</v>
       </c>
@@ -3235,7 +3587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18">
       <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
@@ -3248,7 +3600,7 @@
       </c>
       <c r="H30" s="77"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18">
       <c r="D31" s="12" t="s">
         <v>31</v>
       </c>
@@ -3265,7 +3617,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18">
       <c r="D32" s="45" t="s">
         <v>46</v>
       </c>
@@ -3282,8 +3634,8 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="70" t="s">
+    <row r="33" spans="3:8">
+      <c r="C33" s="71" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="47" t="s">
@@ -3300,8 +3652,8 @@
       </c>
       <c r="H33" s="34"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="70"/>
+    <row r="34" spans="3:8">
+      <c r="C34" s="71"/>
       <c r="D34" s="47" t="s">
         <v>76</v>
       </c>
@@ -3316,8 +3668,8 @@
       </c>
       <c r="H34" s="34"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C35" s="70"/>
+    <row r="35" spans="3:8">
+      <c r="C35" s="71"/>
       <c r="D35" s="47" t="s">
         <v>13</v>
       </c>
@@ -3340,26 +3692,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="M15:O15"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E20:K20"/>
@@ -3376,6 +3708,26 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3383,12 +3735,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
@@ -3396,12 +3748,12 @@
     <col min="7" max="7" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
         <v>174</v>
       </c>
@@ -3419,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="C5" s="66" t="s">
         <v>31</v>
       </c>
@@ -3434,7 +3786,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="C6" s="78" t="s">
         <v>78</v>
       </c>
@@ -3452,7 +3804,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="C7" s="78"/>
       <c r="D7" s="22" t="s">
         <v>77</v>
@@ -3468,7 +3820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="C8" s="78"/>
       <c r="D8" s="22" t="s">
         <v>13</v>
@@ -3486,7 +3838,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="B11" s="1" t="s">
         <v>177</v>
       </c>
@@ -3500,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="C12" s="12" t="s">
         <v>31</v>
       </c>
@@ -3511,7 +3863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="C13" s="49">
         <v>42095</v>
       </c>
@@ -3522,7 +3874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="C14" s="49">
         <v>42096</v>
       </c>
@@ -3533,7 +3885,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="C15" s="49">
         <v>42097</v>
       </c>
@@ -3542,7 +3894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="C16" s="49" t="s">
         <v>180</v>
       </c>
@@ -3555,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5">
       <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
@@ -3576,31 +3928,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="C2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="C4" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="C5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3627,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="C6" s="66" t="s">
         <v>31</v>
       </c>
@@ -3650,7 +4002,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="C7" s="78" t="s">
         <v>78</v>
       </c>
@@ -3675,7 +4027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="C8" s="78"/>
       <c r="D8" s="22" t="s">
         <v>77</v>
@@ -3698,7 +4050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="C9" s="78"/>
       <c r="D9" s="22" t="s">
         <v>13</v>
@@ -3741,35 +4093,35 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="C2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="B6" s="12" t="s">
         <v>190</v>
       </c>
@@ -3780,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
@@ -3791,7 +4143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" s="83" t="s">
         <v>108</v>
       </c>
@@ -3802,7 +4154,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" s="84"/>
       <c r="C9" s="53" t="s">
         <v>193</v>
@@ -3811,7 +4163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" s="85"/>
       <c r="C10" s="52" t="s">
         <v>195</v>
@@ -3820,12 +4172,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" s="12" t="s">
         <v>190</v>
       </c>
@@ -3836,7 +4188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
@@ -3847,7 +4199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" s="86" t="s">
         <v>198</v>
       </c>
@@ -3858,7 +4210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="86"/>
       <c r="C17" s="87" t="s">
         <v>201</v>
@@ -3867,17 +4219,17 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
       <c r="D19" s="87"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4">
       <c r="B20" s="86"/>
       <c r="C20" s="87" t="s">
         <v>203</v>
@@ -3886,17 +4238,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="B21" s="86"/>
       <c r="C21" s="88"/>
       <c r="D21" s="88"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="B25" s="12" t="s">
         <v>190</v>
       </c>
@@ -3907,7 +4259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4">
       <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
@@ -3918,7 +4270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4">
       <c r="B27" s="80" t="s">
         <v>206</v>
       </c>
@@ -3929,7 +4281,7 @@
         <v>42861</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4">
       <c r="B28" s="81"/>
       <c r="C28" s="56">
         <v>42857</v>
@@ -3938,7 +4290,7 @@
         <v>42862</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4">
       <c r="B29" s="82"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57">
@@ -3960,20 +4312,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B675A-B0D2-4C78-84EC-A73FE770F894}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="90"/>
+    <col min="2" max="2" width="27" style="90" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="90" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" s="90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="91">
+        <v>1</v>
+      </c>
+      <c r="C6" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="91">
+        <v>1</v>
+      </c>
+      <c r="C12" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="106">
+        <v>42095</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="106">
+        <v>42096</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="106">
+        <v>42097</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="92">
+        <v>1</v>
+      </c>
+      <c r="C20" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="93"/>
+      <c r="B23" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="93"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="93"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="93"/>
+      <c r="B26" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="93"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3988,7 +4547,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -4000,7 +4559,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4012,7 +4571,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4026,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
@@ -4037,7 +4596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +4607,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4065,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
@@ -4079,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
@@ -4094,7 +4653,7 @@
         <v>0.45599999999999952</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:7">
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
@@ -4108,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:7">
       <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
@@ -4119,7 +4678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:7">
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
@@ -4130,7 +4689,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:7">
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4148,14 +4707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
@@ -4163,17 +4722,17 @@
     <col min="5" max="5" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="C2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -4187,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="C6" s="12" t="s">
         <v>31</v>
       </c>
@@ -4198,7 +4757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="C7" s="12" t="s">
         <v>108</v>
       </c>
@@ -4209,7 +4768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -4223,7 +4782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="C12" s="59" t="s">
         <v>31</v>
       </c>
@@ -4234,12 +4793,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="C13" s="60"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="C14" s="12" t="s">
         <v>108</v>
       </c>
@@ -4250,7 +4809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>109</v>
       </c>
@@ -4264,7 +4823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="C18" s="12" t="s">
         <v>31</v>
       </c>
@@ -4275,12 +4834,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="C19" s="12"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="C20" s="12" t="s">
         <v>108</v>
       </c>
@@ -4291,12 +4850,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5">
       <c r="C24" s="12" t="s">
         <v>117</v>
       </c>
@@ -4307,12 +4866,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5">
       <c r="C25" s="12"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5">
       <c r="C26" s="12" t="s">
         <v>31</v>
       </c>
@@ -4323,17 +4882,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5">
       <c r="C27" s="12"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="C28" s="12"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5">
       <c r="C29" s="12" t="s">
         <v>108</v>
       </c>
@@ -4344,12 +4903,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5">
       <c r="C30" s="12"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5">
       <c r="C31" s="12"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -4364,26 +4923,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4412,7 +4971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -4434,7 +4993,7 @@
       </c>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -4452,7 +5011,7 @@
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -4466,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
@@ -4477,7 +5036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="C10" s="65" t="s">
         <v>34</v>
       </c>
@@ -4488,7 +5047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="C11" s="65"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
@@ -4497,7 +5056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="C12" s="31" t="s">
         <v>100</v>
       </c>
@@ -4508,7 +5067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
@@ -4522,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
@@ -4533,7 +5092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
@@ -4544,7 +5103,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
@@ -4555,7 +5114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6">
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
@@ -4569,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6">
       <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
@@ -4580,7 +5139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
@@ -4591,7 +5150,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -4605,7 +5164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6">
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -4616,7 +5175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
@@ -4627,7 +5186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6">
       <c r="C29" s="2" t="s">
         <v>49</v>
       </c>
@@ -4648,22 +5207,22 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
-    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -4671,12 +5230,12 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -4690,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
@@ -4701,7 +5260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" s="13">
         <v>42095</v>
       </c>
@@ -4712,7 +5271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="B6" s="13">
         <v>42096</v>
       </c>
@@ -4723,7 +5282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="B7" s="13">
         <v>42097</v>
       </c>
@@ -4732,7 +5291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
@@ -4757,7 +5316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="13">
         <v>42095</v>
       </c>
@@ -4768,7 +5327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" s="13">
         <v>42096</v>
       </c>
@@ -4779,7 +5338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" s="13">
         <v>42097</v>
       </c>
@@ -4788,7 +5347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -4802,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
@@ -4813,7 +5372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="B20" s="13">
         <v>42095</v>
       </c>
@@ -4824,7 +5383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="B21" s="13">
         <v>42096</v>
       </c>
@@ -4835,7 +5394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="B22" s="13">
         <v>42097</v>
       </c>
@@ -4844,7 +5403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="B23" s="12" t="s">
         <v>95</v>
       </c>
@@ -4853,7 +5412,7 @@
       </c>
       <c r="D23" s="26"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>207</v>
       </c>
@@ -4867,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
@@ -4878,7 +5437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="B28" s="13">
         <v>42095</v>
       </c>
@@ -4889,7 +5448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="B29" s="13">
         <v>42096</v>
       </c>
@@ -4900,7 +5459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="B30" s="13">
         <v>42097</v>
       </c>
@@ -4909,7 +5468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="B31" s="12" t="s">
         <v>15</v>
       </c>
@@ -4925,21 +5484,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -4960,7 +5519,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
@@ -4976,7 +5535,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -4992,7 +5551,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
@@ -5013,7 +5572,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="35" t="s">
         <v>31</v>
       </c>
@@ -5029,7 +5588,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="35" t="s">
         <v>46</v>
       </c>
@@ -5045,7 +5604,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -5066,7 +5625,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
@@ -5082,7 +5641,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="9" t="s">
         <v>46</v>
       </c>
@@ -5105,24 +5664,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -5143,7 +5702,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
@@ -5159,7 +5718,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="16" t="s">
         <v>46</v>
       </c>
@@ -5175,7 +5734,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
         <v>67</v>
       </c>
@@ -5192,7 +5751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
@@ -5204,7 +5763,7 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="C11" s="13">
         <v>42095</v>
       </c>
@@ -5216,7 +5775,7 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="C12" s="13">
         <v>42096</v>
       </c>
@@ -5228,7 +5787,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="C13" s="13">
         <v>42097</v>
       </c>
@@ -5245,24 +5804,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -5276,7 +5835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
@@ -5287,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
@@ -5298,7 +5857,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
         <v>74</v>
       </c>
@@ -5312,7 +5871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="D10" s="18" t="s">
         <v>2</v>
       </c>
@@ -5323,7 +5882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="D11" s="18" t="s">
         <v>5</v>
       </c>
@@ -5334,12 +5893,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="18" t="s">
         <v>1</v>
       </c>
@@ -5350,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
@@ -5361,7 +5920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>5</v>
       </c>
@@ -5372,12 +5931,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="C23" s="18" t="s">
         <v>1</v>
       </c>
@@ -5388,7 +5947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5">
       <c r="C24" s="18" t="s">
         <v>2</v>
       </c>
@@ -5399,7 +5958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5">
       <c r="C25" s="18" t="s">
         <v>5</v>
       </c>
@@ -5417,30 +5976,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="C2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
@@ -5455,7 +6014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="C5" s="21" t="s">
         <v>31</v>
       </c>
@@ -5467,7 +6026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="C6" s="22" t="s">
         <v>76</v>
       </c>
@@ -5479,7 +6038,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="C7" s="22" t="s">
         <v>77</v>
       </c>
@@ -5491,7 +6050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
@@ -5505,7 +6064,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
@@ -5520,7 +6079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="D13" s="66" t="s">
         <v>31</v>
       </c>
@@ -5532,7 +6091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
@@ -5546,7 +6105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="D15" s="68"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
@@ -5558,7 +6117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="D16" s="69"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
@@ -5572,12 +6131,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:8">
       <c r="E20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:8">
       <c r="E21" s="66" t="s">
         <v>1</v>
       </c>
@@ -5589,7 +6148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:8">
       <c r="E22" s="66" t="s">
         <v>31</v>
       </c>
@@ -5601,7 +6160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:8">
       <c r="E23" s="67" t="s">
         <v>78</v>
       </c>
@@ -5615,7 +6174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:8">
       <c r="E24" s="68"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
@@ -5627,7 +6186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:8">
       <c r="E25" s="69"/>
       <c r="F25" s="22" t="s">
         <v>13</v>

--- a/src/test/data/anno_VerticalRecords.xlsx
+++ b/src/test/data/anno_VerticalRecords.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B00FF0E-6841-41BF-A07C-F5B3637C9EA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF3D8C-5A6B-41AD-938A-D4EBAC329BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="3105" windowWidth="21615" windowHeight="13860" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="2295" windowWidth="20775" windowHeight="11835" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
     <sheet name="配列カラムの設定" sheetId="15" r:id="rId14"/>
     <sheet name="コメント情報" sheetId="16" r:id="rId15"/>
+    <sheet name="メソッドが存在しない" sheetId="17" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -173,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="214">
   <si>
     <t>○×一覧</t>
     <rPh sb="2" eb="4">
@@ -1568,6 +1569,23 @@
     <t>配列カラム</t>
     <rPh sb="0" eb="2">
       <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応するアクセッサメソッドが存在しないときのテスト</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネストした表</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1893,7 +1911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1983,6 +2001,35 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2002,14 +2049,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2055,40 +2102,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2097,17 +2126,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2155,15 +2181,16 @@
       <sheetName val="独自の開始位置"/>
       <sheetName val="配列カラムの設定"/>
       <sheetName val="コメント情報"/>
+      <sheetName val="メソッドが存在しない"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -2186,17 +2213,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3001,19 +3029,19 @@
       <c r="C4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="39" t="s">
         <v>123</v>
       </c>
@@ -3023,19 +3051,19 @@
       <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
       <c r="M5" s="39" t="s">
         <v>127</v>
       </c>
@@ -3045,25 +3073,25 @@
       <c r="C6" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="70"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="70"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="39" t="s">
         <v>134</v>
       </c>
@@ -3073,25 +3101,25 @@
       <c r="C7" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="70"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="39" t="s">
         <v>141</v>
       </c>
@@ -3176,22 +3204,22 @@
       <c r="C12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="39"/>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
       <c r="P12" s="39" t="s">
         <v>123</v>
       </c>
@@ -3201,22 +3229,22 @@
       <c r="C13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
       <c r="P13" s="39" t="s">
         <v>127</v>
       </c>
@@ -3226,28 +3254,28 @@
       <c r="C14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="70" t="s">
+      <c r="M14" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
       <c r="P14" s="39" t="s">
         <v>134</v>
       </c>
@@ -3257,28 +3285,28 @@
       <c r="C15" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="70" t="s">
+      <c r="M15" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
       <c r="P15" s="39" t="s">
         <v>141</v>
       </c>
@@ -3366,127 +3394,127 @@
       <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="82" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="70" t="s">
+      <c r="M20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
       <c r="Q20" s="39" t="s">
         <v>123</v>
       </c>
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="C21" s="72"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="70" t="s">
+      <c r="M21" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
       <c r="Q21" s="39" t="s">
         <v>127</v>
       </c>
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="84" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="70"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="70" t="s">
+      <c r="I22" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="70" t="s">
+      <c r="N22" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
       <c r="Q22" s="39" t="s">
         <v>134</v>
       </c>
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="C23" s="73"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="70" t="s">
+      <c r="I23" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="70" t="s">
+      <c r="N23" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
       <c r="Q23" s="39" t="s">
         <v>141</v>
       </c>
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="84" t="s">
         <v>166</v>
       </c>
       <c r="D24" s="43" t="s">
@@ -3528,7 +3556,7 @@
       <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="C25" s="73"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="43" t="s">
         <v>5</v>
       </c>
@@ -3591,14 +3619,14 @@
       <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="76" t="s">
+      <c r="F30" s="86"/>
+      <c r="G30" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="77"/>
+      <c r="H30" s="88"/>
     </row>
     <row r="31" spans="2:18">
       <c r="D31" s="12" t="s">
@@ -3635,7 +3663,7 @@
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="81" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="47" t="s">
@@ -3653,7 +3681,7 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="71"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="47" t="s">
         <v>76</v>
       </c>
@@ -3669,7 +3697,7 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="71"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="47" t="s">
         <v>13</v>
       </c>
@@ -3692,6 +3720,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E20:K20"/>
@@ -3708,26 +3756,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3757,10 +3785,10 @@
       <c r="B4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="23">
         <v>1</v>
       </c>
@@ -3772,10 +3800,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="36" t="s">
         <v>32</v>
       </c>
@@ -3787,7 +3815,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="89" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -3805,7 +3833,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="C7" s="78"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
@@ -3821,7 +3849,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="C8" s="78"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
@@ -3953,11 +3981,11 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="79" t="s">
+      <c r="C5" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="23">
@@ -3966,7 +3994,7 @@
       <c r="G5" s="23">
         <v>2</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="90" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="23">
@@ -3980,18 +4008,18 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="79"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="48" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="79"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="48" t="s">
         <v>185</v>
       </c>
@@ -4003,20 +4031,20 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="89" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="79"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="48">
         <v>90</v>
       </c>
       <c r="G7" s="48">
         <v>80</v>
       </c>
-      <c r="H7" s="79"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="48">
         <v>70</v>
       </c>
@@ -4028,18 +4056,18 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="C8" s="78"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="79"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="48">
         <v>70</v>
       </c>
       <c r="G8" s="48">
         <v>90</v>
       </c>
-      <c r="H8" s="79"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="48">
         <v>80</v>
       </c>
@@ -4051,11 +4079,11 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="C9" s="78"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="24">
         <f>SUM(F7:F8)</f>
         <v>160</v>
@@ -4064,7 +4092,7 @@
         <f>SUM(G7:G8)</f>
         <v>170</v>
       </c>
-      <c r="H9" s="79"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="24">
         <f>SUM(I7:I8)</f>
         <v>150</v>
@@ -4144,7 +4172,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="94" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="51" t="s">
@@ -4155,7 +4183,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="84"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="53" t="s">
         <v>193</v>
       </c>
@@ -4164,7 +4192,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="85"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="52" t="s">
         <v>195</v>
       </c>
@@ -4200,7 +4228,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="97" t="s">
         <v>198</v>
       </c>
       <c r="C16" s="54" t="s">
@@ -4211,37 +4239,37 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87" t="s">
+      <c r="B17" s="97"/>
+      <c r="C17" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="86"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
@@ -4271,7 +4299,7 @@
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="91" t="s">
         <v>206</v>
       </c>
       <c r="C27" s="55">
@@ -4282,7 +4310,7 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="81"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="56">
         <v>42857</v>
       </c>
@@ -4291,7 +4319,7 @@
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="82"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57">
         <v>42863</v>
@@ -4316,194 +4344,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B675A-B0D2-4C78-84EC-A73FE770F894}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="90"/>
-    <col min="2" max="2" width="27" style="90" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="90" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="90"/>
+    <col min="1" max="1" width="9" style="63"/>
+    <col min="2" max="2" width="27" style="63" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="63" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="62" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="63" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="62" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="91">
-        <v>1</v>
-      </c>
-      <c r="C6" s="91">
+      <c r="A6" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="64">
+        <v>1</v>
+      </c>
+      <c r="C6" s="64">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="62" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="91">
-        <v>1</v>
-      </c>
-      <c r="C12" s="91">
+      <c r="A12" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="64">
+        <v>1</v>
+      </c>
+      <c r="C12" s="64">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="106">
+      <c r="A14" s="69">
         <v>42095</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="106">
+      <c r="A15" s="69">
         <v>42096</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="64" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="106">
+      <c r="A16" s="69">
         <v>42097</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="62" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="92">
-        <v>1</v>
-      </c>
-      <c r="C20" s="91">
+      <c r="A20" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="65">
+        <v>1</v>
+      </c>
+      <c r="C20" s="64">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="67" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="93"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="104" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="93"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="105"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="93"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="106"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="93"/>
-      <c r="B26" s="102" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="109" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="99"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4516,6 +4544,228 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E1EE57-7DAD-48B7-A26F-74F0AF06E138}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="59">
+        <v>1</v>
+      </c>
+      <c r="C6" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="59">
+        <v>12.456</v>
+      </c>
+      <c r="C8" s="59">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="59">
+        <v>1</v>
+      </c>
+      <c r="C12" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13">
+        <v>42095</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13">
+        <v>42096</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13">
+        <v>42097</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="59">
+        <v>1</v>
+      </c>
+      <c r="C20" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="110"/>
+      <c r="B23" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="110"/>
+      <c r="B24" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B28:C28"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4783,7 +5033,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="70" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -4794,7 +5044,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="60"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
@@ -4975,10 +5225,10 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
@@ -4988,10 +5238,10 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="2" t="s">
@@ -5000,16 +5250,16 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
@@ -5037,7 +5287,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="76" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -5048,7 +5298,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="65"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
@@ -6068,10 +6318,10 @@
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="66"/>
+      <c r="D12" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="77"/>
       <c r="F12" s="23">
         <v>1</v>
       </c>
@@ -6080,10 +6330,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="66"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
@@ -6092,7 +6342,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="78" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -6106,7 +6356,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="D15" s="68"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
@@ -6118,7 +6368,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="D16" s="69"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
@@ -6137,10 +6387,10 @@
       </c>
     </row>
     <row r="21" spans="5:8">
-      <c r="E21" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="66"/>
+      <c r="E21" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="77"/>
       <c r="G21" s="23">
         <v>1</v>
       </c>
@@ -6149,10 +6399,10 @@
       </c>
     </row>
     <row r="22" spans="5:8">
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="66"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="19" t="s">
         <v>32</v>
       </c>
@@ -6161,7 +6411,7 @@
       </c>
     </row>
     <row r="23" spans="5:8">
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="78" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -6175,7 +6425,7 @@
       </c>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="68"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="22" t="s">
         <v>77</v>
       </c>
@@ -6187,7 +6437,7 @@
       </c>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="69"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
